--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Sistema iniciado.</t>
   </si>
@@ -162,8 +162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,9 +209,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -249,7 +249,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -283,7 +283,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -318,10 +317,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,20 +492,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>1001</v>
       </c>
@@ -518,7 +516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1002</v>
       </c>
@@ -529,7 +527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -540,7 +538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -551,7 +549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -562,7 +560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -573,7 +571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -584,7 +582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>3001</v>
       </c>
@@ -595,7 +593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>3002</v>
       </c>
@@ -606,7 +604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>3003</v>
       </c>
@@ -617,7 +615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>3004</v>
       </c>
@@ -628,7 +626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>3005</v>
       </c>
@@ -639,7 +637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>3006</v>
       </c>
@@ -650,7 +648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>3007</v>
       </c>
@@ -661,7 +659,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>3008</v>
       </c>
@@ -672,7 +670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>4001</v>
       </c>
@@ -683,7 +681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>4002</v>
       </c>
@@ -694,7 +692,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>4003</v>
       </c>
@@ -705,7 +703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>4004</v>
       </c>
@@ -716,7 +714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>4005</v>
       </c>
@@ -727,7 +725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>4006</v>
       </c>
@@ -738,7 +736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>4007</v>
       </c>
@@ -749,7 +747,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>5001</v>
       </c>
@@ -760,7 +758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>5002</v>
       </c>
@@ -771,7 +769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>5003</v>
       </c>
@@ -782,7 +780,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>5004</v>
       </c>
@@ -793,7 +791,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>5005</v>
       </c>
@@ -804,7 +802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>6001</v>
       </c>
@@ -815,7 +813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>6002</v>
       </c>
@@ -826,7 +824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>6003</v>
       </c>
@@ -840,7 +838,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>7001</v>
       </c>
@@ -851,7 +849,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>7002</v>
       </c>
@@ -862,7 +860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>7003</v>
       </c>
@@ -876,7 +874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>8001</v>
       </c>
@@ -887,7 +885,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>8002</v>
       </c>
@@ -901,7 +899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>8003</v>
       </c>
@@ -915,39 +913,51 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>8004</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>8005</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>8006</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>8007</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>9001</v>
       </c>
@@ -958,7 +968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>9002</v>
       </c>
@@ -969,7 +979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>9003</v>
       </c>
@@ -989,24 +999,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
